--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/DISTRICT_OF_COLUMBIA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/DISTRICT_OF_COLUMBIA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C3">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C27">
@@ -776,7 +776,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C30">
@@ -815,7 +815,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C33">
@@ -828,7 +828,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C34">
@@ -841,7 +841,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C35">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C38">
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C41">
@@ -1090,7 +1090,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C53">
@@ -1217,7 +1217,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C62">
@@ -1256,7 +1256,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C65">
@@ -1300,7 +1300,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C68">
@@ -1339,7 +1339,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C71">
@@ -1430,7 +1430,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C78">
@@ -1456,7 +1456,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C80">
@@ -1469,7 +1469,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C81">
@@ -1720,7 +1720,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C98">
@@ -1746,7 +1746,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C100">
@@ -1863,41 +1863,6 @@
       </c>
       <c r="D108">
         <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/DISTRICT_OF_COLUMBIA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/DISTRICT_OF_COLUMBIA_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Churintzio</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Zacualpan De Amilpas</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Francisco Tlapancingo</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Juan Bautista Guelache</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Martín Itunyoso</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Xochitlán De Vicente Suárez</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tocatlán</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1705,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -1731,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1744,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -1757,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1770,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1783,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1796,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -1809,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1840,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
